--- a/doc/Gestion des coûts/Gestion des coûts Projet S3 + S4 Version finale.xlsx
+++ b/doc/Gestion des coûts/Gestion des coûts Projet S3 + S4 Version finale.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethis\SecondYearProject\doc\Gestion des coûts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="7875" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="7875" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Prix_de_revient_initial_S3" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Evolution_du_coût_de_revient_S4" sheetId="6" r:id="rId6"/>
     <sheet name="Taux_horaire_d'un_technicien" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" calcMode="manual" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -178,23 +183,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot; € &quot;;#,##0.00&quot; € &quot;;&quot;-&quot;#&quot; € &quot;;@&quot; &quot;"/>
-    <numFmt numFmtId="166" formatCode="d/m/yy"/>
-    <numFmt numFmtId="167" formatCode="#,##0,[$€];[Red]&quot;-&quot;#,##0,[$€]"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00&quot; &quot;[$€-40C]&quot; &quot;;#,##0.00&quot; &quot;[$€-40C]&quot; &quot;;&quot;-&quot;#&quot; &quot;[$€-40C]&quot; &quot;;@&quot; &quot;"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="170" formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0,"/>
-    <numFmt numFmtId="171" formatCode="&quot; &quot;#,##0.00&quot; &quot;[$€]&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;[$€]&quot; &quot;;&quot; -&quot;00&quot; &quot;[$€]&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0,&quot;€&quot;;[Red]&quot;-&quot;#,##0,&quot;€&quot;"/>
-    <numFmt numFmtId="173" formatCode="&quot; &quot;#,##0.00&quot; &quot;[$€-40C]&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]&quot; &quot;;&quot; -&quot;00&quot; &quot;[$€-40C]&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00,&quot;   &quot;;#,##0.00,&quot;   &quot;;&quot;-&quot;#&quot;    &quot;;@&quot; &quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot; &quot;#,##0.00&quot;   &quot;;&quot;-&quot;#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot; € &quot;;#,##0.00&quot; € &quot;;&quot;-&quot;#&quot; € &quot;;@&quot; &quot;"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy"/>
+    <numFmt numFmtId="168" formatCode="#,##0,[$€];[Red]&quot;-&quot;#,##0,[$€]"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot; &quot;[$€-40C]&quot; &quot;;#,##0.00&quot; &quot;[$€-40C]&quot; &quot;;&quot;-&quot;#&quot; &quot;[$€-40C]&quot; &quot;;@&quot; &quot;"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="171" formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0,"/>
+    <numFmt numFmtId="172" formatCode="&quot; &quot;#,##0.00&quot; &quot;[$€]&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;[$€]&quot; &quot;;&quot; -&quot;00&quot; &quot;[$€]&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0,&quot;€&quot;;[Red]&quot;-&quot;#,##0,&quot;€&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot; &quot;#,##0.00&quot; &quot;[$€-40C]&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]&quot; &quot;;&quot; -&quot;00&quot; &quot;[$€-40C]&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0.00,&quot;   &quot;;#,##0.00,&quot;   &quot;;&quot;-&quot;#&quot;    &quot;;@&quot; &quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot; &quot;#,##0.00&quot;   &quot;;&quot;-&quot;#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -425,10 +430,10 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
@@ -437,7 +442,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -474,10 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,16 +506,16 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,67 +534,67 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -598,7 +603,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,12 +649,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -697,6 +720,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -704,6 +728,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -717,6 +742,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -820,7 +846,21 @@
               </c:pt>
             </c:numLit>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-569B-4A6C-972F-58AFF07AFD40}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="97379840"/>
         <c:axId val="97378304"/>
       </c:scatterChart>
@@ -830,6 +870,7 @@
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -843,6 +884,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0," sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -881,7 +924,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97379840"/>
@@ -895,8 +938,11 @@
           <c:max val="15"/>
           <c:min val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -935,7 +981,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97378304"/>
@@ -956,6 +1002,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -984,11 +1031,13 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1020,7 +1069,7 @@
           <a:latin typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1032,16 +1081,29 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1096,7 +1158,7 @@
             <c:numRef>
               <c:f>Evolution_du_coût_de_revient_S4!$D$7:$O$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00" "[$€-40C];[Red]"-"#,##0.00" "[$€-40C]</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>25619.49</c:v>
@@ -1137,8 +1199,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB91-4BC8-8D63-25B9AD0D143C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="97959936"/>
         <c:axId val="97961472"/>
       </c:lineChart>
@@ -1147,22 +1224,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="97961472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="97961472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="97959936"/>
         <c:crosses val="autoZero"/>
@@ -1172,8 +1257,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1696,7 +1784,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1038475" y="4127003"/>
+          <a:off x="1119983" y="3997242"/>
           <a:ext cx="10529297" cy="200939"/>
           <a:chOff x="754501" y="2681112"/>
           <a:chExt cx="9343294" cy="200939"/>
@@ -2026,7 +2114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2058,9 +2146,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2092,6 +2181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2267,14 +2357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -2282,7 +2372,7 @@
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -2290,17 +2380,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2407,7 @@
       <c r="M5" s="65"/>
       <c r="N5" s="65"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -2332,7 +2422,7 @@
       <c r="M6" s="65"/>
       <c r="N6" s="65"/>
     </row>
-    <row r="7" spans="2:14" ht="37.5">
+    <row r="7" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -2365,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75">
+    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="67"/>
       <c r="C8" s="63" t="s">
         <v>11</v>
@@ -2396,7 +2486,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" ht="18.75">
+    <row r="9" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="67"/>
       <c r="C9" s="63"/>
       <c r="D9" s="64"/>
@@ -2411,7 +2501,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>42639</v>
       </c>
@@ -2455,7 +2545,7 @@
         <v>479.99</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>42646</v>
       </c>
@@ -2499,7 +2589,7 @@
         <v>959.98</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>42653</v>
       </c>
@@ -2543,7 +2633,7 @@
         <v>1379.9712500000001</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>42660</v>
       </c>
@@ -2587,7 +2677,7 @@
         <v>2249.953125</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>42667</v>
       </c>
@@ -2631,7 +2721,7 @@
         <v>3309.933125</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>42674</v>
       </c>
@@ -2675,7 +2765,7 @@
         <v>4059.9175</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>42681</v>
       </c>
@@ -2719,7 +2809,7 @@
         <v>4989.8981249999997</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>42688</v>
       </c>
@@ -2763,7 +2853,7 @@
         <v>5889.8793749999995</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>42695</v>
       </c>
@@ -2807,7 +2897,7 @@
         <v>6859.8612499999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>42702</v>
       </c>
@@ -2851,7 +2941,7 @@
         <v>7789.8418750000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>42709</v>
       </c>
@@ -2895,7 +2985,7 @@
         <v>8299.8312499999993</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>42716</v>
       </c>
@@ -2939,7 +3029,7 @@
         <v>8879.8212499999991</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75">
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -2989,7 +3079,7 @@
         <v>8879.8212499999991</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18.75">
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C24" s="18" t="s">
         <v>14</v>
       </c>
@@ -3012,7 +3102,7 @@
         <v>49.998750000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3026,7 +3116,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3042,7 +3132,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3061,7 +3151,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3076,7 +3166,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" s="3" t="s">
         <v>18</v>
       </c>
@@ -3095,7 +3185,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="F30" s="3" t="s">
         <v>21</v>
@@ -3138,20 +3228,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="20.42578125" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3168,22 +3258,22 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>24</v>
       </c>
@@ -3200,7 +3290,7 @@
       <c r="L5" s="65"/>
       <c r="M5" s="65"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
@@ -3215,7 +3305,7 @@
       <c r="L6" s="65"/>
       <c r="M6" s="65"/>
     </row>
-    <row r="7" spans="1:13" ht="37.5">
+    <row r="7" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -3248,7 +3338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
       <c r="B8" s="63" t="s">
         <v>11</v>
@@ -3279,7 +3369,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
       <c r="B9" s="63"/>
       <c r="C9" s="68"/>
@@ -3294,7 +3384,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>42639</v>
       </c>
@@ -3338,7 +3428,7 @@
         <v>479.99</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>42646</v>
       </c>
@@ -3382,7 +3472,7 @@
         <v>959.98</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>42653</v>
       </c>
@@ -3426,7 +3516,7 @@
         <v>1379.9712500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>42660</v>
       </c>
@@ -3470,7 +3560,7 @@
         <v>2159.9549999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>42667</v>
       </c>
@@ -3514,7 +3604,7 @@
         <v>3009.9393749999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>42674</v>
       </c>
@@ -3558,7 +3648,7 @@
         <v>3759.9237499999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>42681</v>
       </c>
@@ -3602,7 +3692,7 @@
         <v>4689.9043750000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>42688</v>
       </c>
@@ -3646,7 +3736,7 @@
         <v>5649.8843749999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>42695</v>
       </c>
@@ -3690,7 +3780,7 @@
         <v>6589.8668749999997</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>42702</v>
       </c>
@@ -3734,7 +3824,7 @@
         <v>7489.8481249999995</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>42709</v>
       </c>
@@ -3778,7 +3868,7 @@
         <v>9149.8156249999993</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>42716</v>
       </c>
@@ -3822,7 +3912,7 @@
         <v>9869.8006249999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>13</v>
       </c>
@@ -3872,7 +3962,7 @@
         <v>9869.8006249999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3887,7 +3977,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75">
+    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>14</v>
       </c>
@@ -3910,7 +4000,7 @@
         <v>49.998750000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3924,7 +4014,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3939,7 +4029,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3954,7 +4044,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3969,7 +4059,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
@@ -3990,7 +4080,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
@@ -4032,12 +4122,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -4046,7 +4136,7 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4063,7 +4153,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4078,7 +4168,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4093,7 +4183,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4108,7 +4198,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="15" t="s">
         <v>25</v>
@@ -4147,7 +4237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="35" t="s">
         <v>37</v>
@@ -4189,7 +4279,7 @@
         <v>9869.7999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -4206,18 +4296,18 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="35"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="28" spans="7:15">
+    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
       <c r="O28" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="7:15">
+    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G32" s="3" t="s">
         <v>18</v>
       </c>
@@ -4231,7 +4321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="7:10">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" s="3" t="s">
         <v>21</v>
       </c>
@@ -4252,14 +4342,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -4270,7 +4361,7 @@
     <col min="1025" max="1025" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -4278,17 +4369,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="23.25" customHeight="1">
+    <row r="5" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4305,7 +4396,7 @@
       <c r="M5" s="65"/>
       <c r="N5" s="65"/>
     </row>
-    <row r="6" spans="2:14" ht="23.25" customHeight="1">
+    <row r="6" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -4320,7 +4411,7 @@
       <c r="M6" s="65"/>
       <c r="N6" s="65"/>
     </row>
-    <row r="7" spans="2:14" ht="37.5" customHeight="1">
+    <row r="7" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -4345,7 +4436,7 @@
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1">
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="67"/>
       <c r="C8" s="63" t="s">
         <v>11</v>
@@ -4384,7 +4475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="22.5" customHeight="1">
+    <row r="9" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="67"/>
       <c r="C9" s="63"/>
       <c r="D9" s="64"/>
@@ -4399,7 +4490,7 @@
       <c r="M9" s="69"/>
       <c r="N9" s="69"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>42744</v>
       </c>
@@ -4443,7 +4534,7 @@
         <v>8899.8250000000007</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>42751</v>
       </c>
@@ -4487,7 +4578,7 @@
         <v>9959.8050000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>42758</v>
       </c>
@@ -4531,7 +4622,7 @@
         <v>11069.781875000001</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>42765</v>
       </c>
@@ -4575,7 +4666,7 @@
         <v>12229.761875</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>42772</v>
       </c>
@@ -4619,7 +4710,7 @@
         <v>13189.741875</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>42779</v>
       </c>
@@ -4663,7 +4754,7 @@
         <v>14149.721874999999</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>42786</v>
       </c>
@@ -4707,7 +4798,7 @@
         <v>14209.720625</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>42793</v>
       </c>
@@ -4751,7 +4842,7 @@
         <v>15284.700312500001</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>42800</v>
       </c>
@@ -4795,7 +4886,7 @@
         <v>16244.680312500001</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>42807</v>
       </c>
@@ -4839,7 +4930,7 @@
         <v>17319.66</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>42814</v>
       </c>
@@ -4883,7 +4974,7 @@
         <v>18279.64</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>42821</v>
       </c>
@@ -4927,7 +5018,7 @@
         <v>18759.63</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>42828</v>
       </c>
@@ -4971,7 +5062,7 @@
         <v>25619.491250000003</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="18.75">
+    <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="41" t="s">
         <v>13</v>
       </c>
@@ -5021,7 +5112,7 @@
         <v>25619.491250000003</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="18.75">
+    <row r="25" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C25" s="18" t="s">
         <v>14</v>
       </c>
@@ -5044,7 +5135,7 @@
         <v>49.998750000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5058,7 +5149,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5086,7 +5177,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5117,7 +5208,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5144,7 +5235,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F30" s="3" t="s">
         <v>18</v>
       </c>
@@ -5175,7 +5266,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="F31" s="3" t="s">
         <v>39</v>
@@ -5209,6 +5300,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
@@ -5225,26 +5319,24 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
   </mergeCells>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="9" width="20.42578125" customWidth="1"/>
@@ -5255,29 +5347,29 @@
     <col min="1025" max="1025" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>24</v>
       </c>
@@ -5294,7 +5386,7 @@
       <c r="L5" s="65"/>
       <c r="M5" s="65"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
@@ -5309,7 +5401,7 @@
       <c r="L6" s="65"/>
       <c r="M6" s="65"/>
     </row>
-    <row r="7" spans="1:13" ht="17.45" customHeight="1">
+    <row r="7" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -5342,7 +5434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
       <c r="B8" s="63" t="s">
         <v>11</v>
@@ -5373,7 +5465,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
       <c r="B9" s="63"/>
       <c r="C9" s="68"/>
@@ -5388,7 +5480,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="47" customFormat="1">
+    <row r="10" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>42744</v>
       </c>
@@ -5432,7 +5524,7 @@
         <v>8899.8250000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>42751</v>
       </c>
@@ -5476,7 +5568,7 @@
         <v>9959.8050000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>42758</v>
       </c>
@@ -5520,7 +5612,7 @@
         <v>10769.788125000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>42765</v>
       </c>
@@ -5564,7 +5656,7 @@
         <v>12229.761875</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>42772</v>
       </c>
@@ -5608,7 +5700,7 @@
         <v>12709.751875</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>42779</v>
       </c>
@@ -5652,7 +5744,7 @@
         <v>14149.721874999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>42786</v>
       </c>
@@ -5696,7 +5788,7 @@
         <v>14329.718124999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>42793</v>
       </c>
@@ -5740,7 +5832,7 @@
         <v>15404.697812499999</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>42800</v>
       </c>
@@ -5784,7 +5876,7 @@
         <v>16844.6678125</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>42807</v>
       </c>
@@ -5828,7 +5920,7 @@
         <v>18159.642500000002</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>42814</v>
       </c>
@@ -5872,7 +5964,7 @@
         <v>18759.63</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>42821</v>
       </c>
@@ -5916,7 +6008,7 @@
         <v>18879.627500000002</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>42828</v>
       </c>
@@ -5960,7 +6052,7 @@
         <v>26459.473750000005</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="15">
         <f>SUM(B10:B22)</f>
@@ -6004,8 +6096,8 @@
         <v>26459.473750000005</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="2" customFormat="1"/>
-    <row r="25" spans="1:25" ht="18.75">
+    <row r="24" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>14</v>
       </c>
@@ -6028,7 +6120,7 @@
         <v>49.998750000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6042,7 +6134,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:25" s="50" customFormat="1">
+    <row r="27" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6069,7 +6161,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6096,7 +6188,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6123,7 +6215,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
         <v>18</v>
       </c>
@@ -6154,7 +6246,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
@@ -6202,22 +6294,23 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
@@ -6230,7 +6323,7 @@
     <col min="1025" max="1025" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -6247,7 +6340,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6262,13 +6355,13 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D6" s="15" t="s">
         <v>25</v>
       </c>
@@ -6309,7 +6402,7 @@
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C7" s="51" t="s">
         <v>37</v>
       </c>
@@ -6353,27 +6446,27 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="53"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C9" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="16:20">
+    <row r="26" spans="16:20" x14ac:dyDescent="0.25">
       <c r="R26" s="70"/>
       <c r="S26" s="70"/>
       <c r="T26" s="70"/>
     </row>
-    <row r="30" spans="16:20">
+    <row r="30" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="16:20">
+    <row r="31" spans="16:20" x14ac:dyDescent="0.25">
       <c r="R31" s="70" t="s">
         <v>38</v>
       </c>
       <c r="S31" s="70"/>
       <c r="T31" s="70"/>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="3" t="s">
         <v>18</v>
       </c>
@@ -6388,7 +6481,7 @@
       </c>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="3" t="s">
         <v>39</v>
       </c>
@@ -6408,20 +6501,23 @@
     <mergeCell ref="R26:T26"/>
     <mergeCell ref="R31:T31"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="3" width="8.28515625" customWidth="1"/>
@@ -6436,28 +6532,28 @@
     <col min="1025" max="1025" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="2" customFormat="1">
+    <row r="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="23.25">
+    <row r="5" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="54" t="s">
         <v>41</v>
       </c>
@@ -6468,7 +6564,7 @@
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -6477,7 +6573,7 @@
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -6488,7 +6584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -6502,7 +6598,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -6516,7 +6612,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -6527,7 +6623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -6538,7 +6634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="6:11">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" s="3" t="s">
         <v>18</v>
       </c>
@@ -6554,7 +6650,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="6:11">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" s="3" t="s">
         <v>39</v>
       </c>
@@ -6572,8 +6668,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>